--- a/bank statement generator/bank_statements/statement_148.xlsx
+++ b/bank statement generator/bank_statements/statement_148.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 03.01.2025</t>
+          <t>KONTOSTAND AM 26.06.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>04.01.</t>
+          <t>27.06.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>05.01.</t>
+          <t>28.06.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 41779642</t>
+          <t>PAYPAL VKCMOY</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>39,66-</t>
+          <t>88,19-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>08.01.</t>
+          <t>30.06.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>09.01.</t>
+          <t>01.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL NQRYYA</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 69505375</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>38,07-</t>
+          <t>86,11-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>12.01.</t>
+          <t>04.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>13.01.</t>
+          <t>05.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-62548758</t>
+          <t>PAYPAL QVHQCM</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>54,85-</t>
+          <t>49,99-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>14.01.</t>
+          <t>06.07.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>15.01.</t>
+          <t>07.07.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 8424736</t>
+          <t>RECHNUNG VODAFONE GMBH 70455379</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>87,76-</t>
+          <t>38,86-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 19.01.2025</t>
+          <t>KONTOSTAND AM 11.07.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>220,34-</t>
+          <t>263,15-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 24.01.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 20.07.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
